--- a/Succursales addresses.xlsx
+++ b/Succursales addresses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\groupedeschenes.loc\dfsroot\DFL-MTL Users\lhareb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhareb\Desktop\Extraction AD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792882E4-F0F1-4A7E-8752-D960FAAA2F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB53DDA-FD37-4DC2-A6B4-E13B9A11FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FE04AE3-7780-409D-8285-6F92F440E15E}"/>
+    <workbookView xWindow="-28920" yWindow="-1530" windowWidth="29040" windowHeight="15720" xr2:uid="{8FE04AE3-7780-409D-8285-6F92F440E15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t xml:space="preserve">LAVAL   </t>
   </si>
@@ -175,6 +175,48 @@
   </si>
   <si>
     <t>Numero succursale</t>
+  </si>
+  <si>
+    <t>Martin Hudon</t>
+  </si>
+  <si>
+    <t>Eric Vanier</t>
+  </si>
+  <si>
+    <t>Caroline Cyr</t>
+  </si>
+  <si>
+    <t>Yannick Lazare</t>
+  </si>
+  <si>
+    <t>Simon Huard</t>
+  </si>
+  <si>
+    <t>Bruno Adam</t>
+  </si>
+  <si>
+    <t>Claudio Fazioli</t>
+  </si>
+  <si>
+    <t>Karolane Roy</t>
+  </si>
+  <si>
+    <t>Ludovic Gérard</t>
+  </si>
+  <si>
+    <t>Chantal Maltais</t>
+  </si>
+  <si>
+    <t>Danny Pronovost</t>
+  </si>
+  <si>
+    <t>Yannick Blanchet</t>
+  </si>
+  <si>
+    <t>Eric Savard</t>
+  </si>
+  <si>
+    <t>Directeur</t>
   </si>
 </sst>
 </file>
@@ -592,20 +634,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FBAAE2-2540-45C9-BDCB-AD3FAB103987}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="61.54296875" customWidth="1"/>
+    <col min="2" max="2" width="76.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -615,8 +658,11 @@
       <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -626,8 +672,11 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,8 +686,11 @@
       <c r="C3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,11 @@
       <c r="C4" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -659,8 +714,11 @@
       <c r="C5" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,8 +728,11 @@
       <c r="C6" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -681,8 +742,11 @@
       <c r="C7" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -692,8 +756,11 @@
       <c r="C8" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -703,8 +770,11 @@
       <c r="C9" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -714,8 +784,11 @@
       <c r="C10" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -725,8 +798,11 @@
       <c r="C11" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -736,8 +812,11 @@
       <c r="C12" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -747,8 +826,11 @@
       <c r="C13" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -758,8 +840,11 @@
       <c r="C14" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -769,30 +854,33 @@
       <c r="C15" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -802,8 +890,11 @@
       <c r="C20" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -813,8 +904,11 @@
       <c r="C21" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -824,8 +918,11 @@
       <c r="C22" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -835,8 +932,11 @@
       <c r="C23" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -846,8 +946,11 @@
       <c r="C24" s="8">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -857,8 +960,11 @@
       <c r="C25" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -868,8 +974,11 @@
       <c r="C26" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
